--- a/biology/Botanique/Parc_de_Boa_Vista/Parc_de_Boa_Vista.xlsx
+++ b/biology/Botanique/Parc_de_Boa_Vista/Parc_de_Boa_Vista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc de Boa Vista (en portugais : Quinta da Boa Vista) est un jardin public de la ville de Rio de Janeiro, au Brésil. Au XIXe siècle, le parc de Boa Vista faisait partie des jardins du palais de Saint-Christophe, résidence officielle de la famille impériale du Brésil. Il abrite aujourd'hui le jardin zoologique de Rio de Janeiro et le Musée national de l'université fédérale de Rio de Janeiro.
